--- a/data/Austerlitz_seizoen_2020-2021.xlsx
+++ b/data/Austerlitz_seizoen_2020-2021.xlsx
@@ -1,16 +1,16 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="23127"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="10913"/>
   <workbookPr defaultThemeVersion="166925"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="U:\src\darts\data\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="/Users/bas/src/darts/data/"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{58CCBE52-EC5C-4518-84EF-238F35C2EA34}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="45" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{580000CA-00FC-5042-9E5F-C0316645AE36}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="45" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="780" yWindow="600" windowWidth="28680" windowHeight="31800" tabRatio="766" activeTab="1" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="0" yWindow="460" windowWidth="38400" windowHeight="21140" tabRatio="766" activeTab="1" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="2020-09-04" sheetId="30" r:id="rId1"/>
@@ -2428,9 +2428,9 @@
       <selection activeCell="E103" sqref="E103"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="8.85546875" defaultRowHeight="12.75" x14ac:dyDescent="0.2"/>
+  <sheetFormatPr baseColWidth="10" defaultColWidth="8.83203125" defaultRowHeight="13" x14ac:dyDescent="0.15"/>
   <sheetData>
-    <row r="1" spans="1:12" x14ac:dyDescent="0.2">
+    <row r="1" spans="1:12" x14ac:dyDescent="0.15">
       <c r="A1" t="s">
         <v>0</v>
       </c>
@@ -2468,7 +2468,7 @@
         <v>11</v>
       </c>
     </row>
-    <row r="2" spans="1:12" x14ac:dyDescent="0.2">
+    <row r="2" spans="1:12" x14ac:dyDescent="0.15">
       <c r="C2" t="s">
         <v>23</v>
       </c>
@@ -2482,7 +2482,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="3" spans="1:12" x14ac:dyDescent="0.2">
+    <row r="3" spans="1:12" x14ac:dyDescent="0.15">
       <c r="C3" t="s">
         <v>26</v>
       </c>
@@ -2496,7 +2496,7 @@
         <v>2</v>
       </c>
     </row>
-    <row r="4" spans="1:12" x14ac:dyDescent="0.2">
+    <row r="4" spans="1:12" x14ac:dyDescent="0.15">
       <c r="C4" t="s">
         <v>22</v>
       </c>
@@ -2510,7 +2510,7 @@
         <v>2</v>
       </c>
     </row>
-    <row r="5" spans="1:12" x14ac:dyDescent="0.2">
+    <row r="5" spans="1:12" x14ac:dyDescent="0.15">
       <c r="C5" t="s">
         <v>21</v>
       </c>
@@ -2524,7 +2524,7 @@
         <v>2</v>
       </c>
     </row>
-    <row r="6" spans="1:12" x14ac:dyDescent="0.2">
+    <row r="6" spans="1:12" x14ac:dyDescent="0.15">
       <c r="C6" t="s">
         <v>19</v>
       </c>
@@ -2538,7 +2538,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="7" spans="1:12" x14ac:dyDescent="0.2">
+    <row r="7" spans="1:12" x14ac:dyDescent="0.15">
       <c r="C7" t="s">
         <v>29</v>
       </c>
@@ -2552,7 +2552,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="8" spans="1:12" x14ac:dyDescent="0.2">
+    <row r="8" spans="1:12" x14ac:dyDescent="0.15">
       <c r="C8" t="s">
         <v>16</v>
       </c>
@@ -2566,7 +2566,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="9" spans="1:12" x14ac:dyDescent="0.2">
+    <row r="9" spans="1:12" x14ac:dyDescent="0.15">
       <c r="C9" t="s">
         <v>24</v>
       </c>
@@ -2580,7 +2580,7 @@
         <v>2</v>
       </c>
     </row>
-    <row r="10" spans="1:12" x14ac:dyDescent="0.2">
+    <row r="10" spans="1:12" x14ac:dyDescent="0.15">
       <c r="C10" t="s">
         <v>28</v>
       </c>
@@ -2597,7 +2597,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="11" spans="1:12" x14ac:dyDescent="0.2">
+    <row r="11" spans="1:12" x14ac:dyDescent="0.15">
       <c r="C11" t="s">
         <v>15</v>
       </c>
@@ -2614,7 +2614,7 @@
         <v>104</v>
       </c>
     </row>
-    <row r="12" spans="1:12" x14ac:dyDescent="0.2">
+    <row r="12" spans="1:12" x14ac:dyDescent="0.15">
       <c r="C12" t="s">
         <v>12</v>
       </c>
@@ -2628,7 +2628,7 @@
         <v>2</v>
       </c>
     </row>
-    <row r="13" spans="1:12" x14ac:dyDescent="0.2">
+    <row r="13" spans="1:12" x14ac:dyDescent="0.15">
       <c r="C13" t="s">
         <v>14</v>
       </c>
@@ -2642,7 +2642,7 @@
         <v>2</v>
       </c>
     </row>
-    <row r="14" spans="1:12" x14ac:dyDescent="0.2">
+    <row r="14" spans="1:12" x14ac:dyDescent="0.15">
       <c r="C14" t="s">
         <v>25</v>
       </c>
@@ -2656,7 +2656,7 @@
         <v>2</v>
       </c>
     </row>
-    <row r="15" spans="1:12" x14ac:dyDescent="0.2">
+    <row r="15" spans="1:12" x14ac:dyDescent="0.15">
       <c r="C15" t="s">
         <v>27</v>
       </c>
@@ -2670,7 +2670,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="16" spans="1:12" x14ac:dyDescent="0.2">
+    <row r="16" spans="1:12" x14ac:dyDescent="0.15">
       <c r="C16" t="s">
         <v>23</v>
       </c>
@@ -2684,7 +2684,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="17" spans="3:7" x14ac:dyDescent="0.2">
+    <row r="17" spans="3:7" x14ac:dyDescent="0.15">
       <c r="C17" t="s">
         <v>26</v>
       </c>
@@ -2701,7 +2701,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="18" spans="3:7" x14ac:dyDescent="0.2">
+    <row r="18" spans="3:7" x14ac:dyDescent="0.15">
       <c r="C18" t="s">
         <v>22</v>
       </c>
@@ -2715,7 +2715,7 @@
         <v>2</v>
       </c>
     </row>
-    <row r="19" spans="3:7" x14ac:dyDescent="0.2">
+    <row r="19" spans="3:7" x14ac:dyDescent="0.15">
       <c r="C19" t="s">
         <v>21</v>
       </c>
@@ -2729,7 +2729,7 @@
         <v>2</v>
       </c>
     </row>
-    <row r="20" spans="3:7" x14ac:dyDescent="0.2">
+    <row r="20" spans="3:7" x14ac:dyDescent="0.15">
       <c r="C20" t="s">
         <v>19</v>
       </c>
@@ -2743,7 +2743,7 @@
         <v>2</v>
       </c>
     </row>
-    <row r="21" spans="3:7" x14ac:dyDescent="0.2">
+    <row r="21" spans="3:7" x14ac:dyDescent="0.15">
       <c r="C21" t="s">
         <v>29</v>
       </c>
@@ -2757,7 +2757,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="22" spans="3:7" x14ac:dyDescent="0.2">
+    <row r="22" spans="3:7" x14ac:dyDescent="0.15">
       <c r="C22" t="s">
         <v>16</v>
       </c>
@@ -2771,7 +2771,7 @@
         <v>2</v>
       </c>
     </row>
-    <row r="23" spans="3:7" x14ac:dyDescent="0.2">
+    <row r="23" spans="3:7" x14ac:dyDescent="0.15">
       <c r="C23" t="s">
         <v>15</v>
       </c>
@@ -2785,7 +2785,7 @@
         <v>2</v>
       </c>
     </row>
-    <row r="24" spans="3:7" x14ac:dyDescent="0.2">
+    <row r="24" spans="3:7" x14ac:dyDescent="0.15">
       <c r="C24" t="s">
         <v>12</v>
       </c>
@@ -2799,7 +2799,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="25" spans="3:7" x14ac:dyDescent="0.2">
+    <row r="25" spans="3:7" x14ac:dyDescent="0.15">
       <c r="C25" t="s">
         <v>14</v>
       </c>
@@ -2813,7 +2813,7 @@
         <v>2</v>
       </c>
     </row>
-    <row r="26" spans="3:7" x14ac:dyDescent="0.2">
+    <row r="26" spans="3:7" x14ac:dyDescent="0.15">
       <c r="C26" t="s">
         <v>25</v>
       </c>
@@ -2827,7 +2827,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="27" spans="3:7" x14ac:dyDescent="0.2">
+    <row r="27" spans="3:7" x14ac:dyDescent="0.15">
       <c r="C27" t="s">
         <v>27</v>
       </c>
@@ -2841,7 +2841,7 @@
         <v>2</v>
       </c>
     </row>
-    <row r="28" spans="3:7" x14ac:dyDescent="0.2">
+    <row r="28" spans="3:7" x14ac:dyDescent="0.15">
       <c r="C28" t="s">
         <v>24</v>
       </c>
@@ -2855,7 +2855,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="29" spans="3:7" x14ac:dyDescent="0.2">
+    <row r="29" spans="3:7" x14ac:dyDescent="0.15">
       <c r="C29" t="s">
         <v>28</v>
       </c>
@@ -2883,13 +2883,13 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{F1AC6138-9A89-44DA-BE82-CB1DBD38A42D}">
   <dimension ref="A1:L29"/>
   <sheetViews>
-    <sheetView tabSelected="1" zoomScale="130" zoomScaleNormal="130" workbookViewId="0">
-      <selection activeCell="L71" sqref="L70:L71"/>
+    <sheetView tabSelected="1" zoomScale="182" zoomScaleNormal="130" workbookViewId="0">
+      <selection activeCell="L27" sqref="L27"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="8.85546875" defaultRowHeight="12.75" x14ac:dyDescent="0.2"/>
+  <sheetFormatPr baseColWidth="10" defaultColWidth="8.83203125" defaultRowHeight="13" x14ac:dyDescent="0.15"/>
   <sheetData>
-    <row r="1" spans="1:12" x14ac:dyDescent="0.2">
+    <row r="1" spans="1:12" x14ac:dyDescent="0.15">
       <c r="A1" t="s">
         <v>0</v>
       </c>
@@ -2927,7 +2927,7 @@
         <v>11</v>
       </c>
     </row>
-    <row r="2" spans="1:12" x14ac:dyDescent="0.2">
+    <row r="2" spans="1:12" x14ac:dyDescent="0.15">
       <c r="C2" t="s">
         <v>14</v>
       </c>
@@ -2941,7 +2941,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="3" spans="1:12" x14ac:dyDescent="0.2">
+    <row r="3" spans="1:12" x14ac:dyDescent="0.15">
       <c r="C3" t="s">
         <v>17</v>
       </c>
@@ -2955,7 +2955,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="4" spans="1:12" x14ac:dyDescent="0.2">
+    <row r="4" spans="1:12" x14ac:dyDescent="0.15">
       <c r="C4" t="s">
         <v>24</v>
       </c>
@@ -2969,7 +2969,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="5" spans="1:12" x14ac:dyDescent="0.2">
+    <row r="5" spans="1:12" x14ac:dyDescent="0.15">
       <c r="C5" t="s">
         <v>27</v>
       </c>
@@ -2983,7 +2983,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="6" spans="1:12" x14ac:dyDescent="0.2">
+    <row r="6" spans="1:12" x14ac:dyDescent="0.15">
       <c r="C6" t="s">
         <v>25</v>
       </c>
@@ -2997,7 +2997,7 @@
         <v>2</v>
       </c>
     </row>
-    <row r="7" spans="1:12" x14ac:dyDescent="0.2">
+    <row r="7" spans="1:12" x14ac:dyDescent="0.15">
       <c r="C7" t="s">
         <v>13</v>
       </c>
@@ -3011,7 +3011,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="8" spans="1:12" x14ac:dyDescent="0.2">
+    <row r="8" spans="1:12" x14ac:dyDescent="0.15">
       <c r="C8" t="s">
         <v>29</v>
       </c>
@@ -3025,7 +3025,7 @@
         <v>2</v>
       </c>
     </row>
-    <row r="9" spans="1:12" x14ac:dyDescent="0.2">
+    <row r="9" spans="1:12" x14ac:dyDescent="0.15">
       <c r="C9" t="s">
         <v>12</v>
       </c>
@@ -3039,7 +3039,7 @@
         <v>2</v>
       </c>
     </row>
-    <row r="10" spans="1:12" x14ac:dyDescent="0.2">
+    <row r="10" spans="1:12" x14ac:dyDescent="0.15">
       <c r="C10" t="s">
         <v>18</v>
       </c>
@@ -3053,7 +3053,7 @@
         <v>2</v>
       </c>
     </row>
-    <row r="11" spans="1:12" x14ac:dyDescent="0.2">
+    <row r="11" spans="1:12" x14ac:dyDescent="0.15">
       <c r="C11" t="s">
         <v>22</v>
       </c>
@@ -3067,7 +3067,7 @@
         <v>2</v>
       </c>
     </row>
-    <row r="12" spans="1:12" x14ac:dyDescent="0.2">
+    <row r="12" spans="1:12" x14ac:dyDescent="0.15">
       <c r="C12" t="s">
         <v>23</v>
       </c>
@@ -3081,7 +3081,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="13" spans="1:12" x14ac:dyDescent="0.2">
+    <row r="13" spans="1:12" x14ac:dyDescent="0.15">
       <c r="C13" t="s">
         <v>20</v>
       </c>
@@ -3098,7 +3098,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="14" spans="1:12" x14ac:dyDescent="0.2">
+    <row r="14" spans="1:12" x14ac:dyDescent="0.15">
       <c r="C14" t="s">
         <v>15</v>
       </c>
@@ -3112,7 +3112,7 @@
         <v>2</v>
       </c>
     </row>
-    <row r="15" spans="1:12" x14ac:dyDescent="0.2">
+    <row r="15" spans="1:12" x14ac:dyDescent="0.15">
       <c r="C15" t="s">
         <v>21</v>
       </c>
@@ -3126,7 +3126,7 @@
         <v>2</v>
       </c>
     </row>
-    <row r="16" spans="1:12" x14ac:dyDescent="0.2">
+    <row r="16" spans="1:12" x14ac:dyDescent="0.15">
       <c r="C16" t="s">
         <v>14</v>
       </c>
@@ -3140,7 +3140,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="17" spans="3:6" x14ac:dyDescent="0.2">
+    <row r="17" spans="3:12" x14ac:dyDescent="0.15">
       <c r="C17" t="s">
         <v>17</v>
       </c>
@@ -3154,7 +3154,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="18" spans="3:6" x14ac:dyDescent="0.2">
+    <row r="18" spans="3:12" x14ac:dyDescent="0.15">
       <c r="C18" t="s">
         <v>24</v>
       </c>
@@ -3168,7 +3168,7 @@
         <v>2</v>
       </c>
     </row>
-    <row r="19" spans="3:6" x14ac:dyDescent="0.2">
+    <row r="19" spans="3:12" x14ac:dyDescent="0.15">
       <c r="C19" t="s">
         <v>27</v>
       </c>
@@ -3182,7 +3182,7 @@
         <v>2</v>
       </c>
     </row>
-    <row r="20" spans="3:6" x14ac:dyDescent="0.2">
+    <row r="20" spans="3:12" x14ac:dyDescent="0.15">
       <c r="C20" t="s">
         <v>25</v>
       </c>
@@ -3196,7 +3196,7 @@
         <v>2</v>
       </c>
     </row>
-    <row r="21" spans="3:6" x14ac:dyDescent="0.2">
+    <row r="21" spans="3:12" x14ac:dyDescent="0.15">
       <c r="C21" t="s">
         <v>13</v>
       </c>
@@ -3210,7 +3210,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="22" spans="3:6" x14ac:dyDescent="0.2">
+    <row r="22" spans="3:12" x14ac:dyDescent="0.15">
       <c r="C22" t="s">
         <v>29</v>
       </c>
@@ -3224,7 +3224,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="23" spans="3:6" x14ac:dyDescent="0.2">
+    <row r="23" spans="3:12" x14ac:dyDescent="0.15">
       <c r="C23" t="s">
         <v>22</v>
       </c>
@@ -3238,7 +3238,7 @@
         <v>2</v>
       </c>
     </row>
-    <row r="24" spans="3:6" x14ac:dyDescent="0.2">
+    <row r="24" spans="3:12" x14ac:dyDescent="0.15">
       <c r="C24" t="s">
         <v>23</v>
       </c>
@@ -3252,7 +3252,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="25" spans="3:6" x14ac:dyDescent="0.2">
+    <row r="25" spans="3:12" x14ac:dyDescent="0.15">
       <c r="C25" t="s">
         <v>20</v>
       </c>
@@ -3266,7 +3266,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="26" spans="3:6" x14ac:dyDescent="0.2">
+    <row r="26" spans="3:12" x14ac:dyDescent="0.15">
       <c r="C26" t="s">
         <v>15</v>
       </c>
@@ -3279,8 +3279,11 @@
       <c r="F26">
         <v>1</v>
       </c>
-    </row>
-    <row r="27" spans="3:6" x14ac:dyDescent="0.2">
+      <c r="L26">
+        <v>109</v>
+      </c>
+    </row>
+    <row r="27" spans="3:12" x14ac:dyDescent="0.15">
       <c r="C27" t="s">
         <v>21</v>
       </c>
@@ -3294,7 +3297,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="28" spans="3:6" x14ac:dyDescent="0.2">
+    <row r="28" spans="3:12" x14ac:dyDescent="0.15">
       <c r="C28" t="s">
         <v>12</v>
       </c>
@@ -3308,7 +3311,7 @@
         <v>2</v>
       </c>
     </row>
-    <row r="29" spans="3:6" x14ac:dyDescent="0.2">
+    <row r="29" spans="3:12" x14ac:dyDescent="0.15">
       <c r="C29" t="s">
         <v>18</v>
       </c>

--- a/data/Austerlitz_seizoen_2020-2021.xlsx
+++ b/data/Austerlitz_seizoen_2020-2021.xlsx
@@ -1,23 +1,24 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="10913"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="23127"/>
   <workbookPr defaultThemeVersion="166925"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="/Users/bas/src/darts/data/"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="U:\src\darts\data\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{580000CA-00FC-5042-9E5F-C0316645AE36}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="45" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{0C8B4484-B2D3-4726-9D08-40B95ABD949F}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="45" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="0" yWindow="460" windowWidth="38400" windowHeight="21140" tabRatio="766" activeTab="1" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="-120" yWindow="-120" windowWidth="57840" windowHeight="32040" tabRatio="766" activeTab="2" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="2020-09-04" sheetId="30" r:id="rId1"/>
     <sheet name="2020-09-11" sheetId="31" r:id="rId2"/>
+    <sheet name="2020-09-18" sheetId="32" r:id="rId3"/>
   </sheets>
   <externalReferences>
-    <externalReference r:id="rId3"/>
+    <externalReference r:id="rId4"/>
   </externalReferences>
   <definedNames>
     <definedName name="Wedstrijden">[1]Rondeberekening!$A$2:$G$83</definedName>
@@ -35,7 +36,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="136" uniqueCount="30">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="184" uniqueCount="30">
   <si>
     <t>Baan</t>
   </si>
@@ -2428,9 +2429,9 @@
       <selection activeCell="E103" sqref="E103"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr baseColWidth="10" defaultColWidth="8.83203125" defaultRowHeight="13" x14ac:dyDescent="0.15"/>
+  <sheetFormatPr defaultColWidth="8.85546875" defaultRowHeight="12.75" x14ac:dyDescent="0.2"/>
   <sheetData>
-    <row r="1" spans="1:12" x14ac:dyDescent="0.15">
+    <row r="1" spans="1:12" x14ac:dyDescent="0.2">
       <c r="A1" t="s">
         <v>0</v>
       </c>
@@ -2468,7 +2469,7 @@
         <v>11</v>
       </c>
     </row>
-    <row r="2" spans="1:12" x14ac:dyDescent="0.15">
+    <row r="2" spans="1:12" x14ac:dyDescent="0.2">
       <c r="C2" t="s">
         <v>23</v>
       </c>
@@ -2482,7 +2483,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="3" spans="1:12" x14ac:dyDescent="0.15">
+    <row r="3" spans="1:12" x14ac:dyDescent="0.2">
       <c r="C3" t="s">
         <v>26</v>
       </c>
@@ -2496,7 +2497,7 @@
         <v>2</v>
       </c>
     </row>
-    <row r="4" spans="1:12" x14ac:dyDescent="0.15">
+    <row r="4" spans="1:12" x14ac:dyDescent="0.2">
       <c r="C4" t="s">
         <v>22</v>
       </c>
@@ -2510,7 +2511,7 @@
         <v>2</v>
       </c>
     </row>
-    <row r="5" spans="1:12" x14ac:dyDescent="0.15">
+    <row r="5" spans="1:12" x14ac:dyDescent="0.2">
       <c r="C5" t="s">
         <v>21</v>
       </c>
@@ -2524,7 +2525,7 @@
         <v>2</v>
       </c>
     </row>
-    <row r="6" spans="1:12" x14ac:dyDescent="0.15">
+    <row r="6" spans="1:12" x14ac:dyDescent="0.2">
       <c r="C6" t="s">
         <v>19</v>
       </c>
@@ -2538,7 +2539,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="7" spans="1:12" x14ac:dyDescent="0.15">
+    <row r="7" spans="1:12" x14ac:dyDescent="0.2">
       <c r="C7" t="s">
         <v>29</v>
       </c>
@@ -2552,7 +2553,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="8" spans="1:12" x14ac:dyDescent="0.15">
+    <row r="8" spans="1:12" x14ac:dyDescent="0.2">
       <c r="C8" t="s">
         <v>16</v>
       </c>
@@ -2566,7 +2567,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="9" spans="1:12" x14ac:dyDescent="0.15">
+    <row r="9" spans="1:12" x14ac:dyDescent="0.2">
       <c r="C9" t="s">
         <v>24</v>
       </c>
@@ -2580,7 +2581,7 @@
         <v>2</v>
       </c>
     </row>
-    <row r="10" spans="1:12" x14ac:dyDescent="0.15">
+    <row r="10" spans="1:12" x14ac:dyDescent="0.2">
       <c r="C10" t="s">
         <v>28</v>
       </c>
@@ -2597,7 +2598,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="11" spans="1:12" x14ac:dyDescent="0.15">
+    <row r="11" spans="1:12" x14ac:dyDescent="0.2">
       <c r="C11" t="s">
         <v>15</v>
       </c>
@@ -2614,7 +2615,7 @@
         <v>104</v>
       </c>
     </row>
-    <row r="12" spans="1:12" x14ac:dyDescent="0.15">
+    <row r="12" spans="1:12" x14ac:dyDescent="0.2">
       <c r="C12" t="s">
         <v>12</v>
       </c>
@@ -2628,7 +2629,7 @@
         <v>2</v>
       </c>
     </row>
-    <row r="13" spans="1:12" x14ac:dyDescent="0.15">
+    <row r="13" spans="1:12" x14ac:dyDescent="0.2">
       <c r="C13" t="s">
         <v>14</v>
       </c>
@@ -2642,7 +2643,7 @@
         <v>2</v>
       </c>
     </row>
-    <row r="14" spans="1:12" x14ac:dyDescent="0.15">
+    <row r="14" spans="1:12" x14ac:dyDescent="0.2">
       <c r="C14" t="s">
         <v>25</v>
       </c>
@@ -2656,7 +2657,7 @@
         <v>2</v>
       </c>
     </row>
-    <row r="15" spans="1:12" x14ac:dyDescent="0.15">
+    <row r="15" spans="1:12" x14ac:dyDescent="0.2">
       <c r="C15" t="s">
         <v>27</v>
       </c>
@@ -2670,7 +2671,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="16" spans="1:12" x14ac:dyDescent="0.15">
+    <row r="16" spans="1:12" x14ac:dyDescent="0.2">
       <c r="C16" t="s">
         <v>23</v>
       </c>
@@ -2684,7 +2685,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="17" spans="3:7" x14ac:dyDescent="0.15">
+    <row r="17" spans="3:7" x14ac:dyDescent="0.2">
       <c r="C17" t="s">
         <v>26</v>
       </c>
@@ -2701,7 +2702,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="18" spans="3:7" x14ac:dyDescent="0.15">
+    <row r="18" spans="3:7" x14ac:dyDescent="0.2">
       <c r="C18" t="s">
         <v>22</v>
       </c>
@@ -2715,7 +2716,7 @@
         <v>2</v>
       </c>
     </row>
-    <row r="19" spans="3:7" x14ac:dyDescent="0.15">
+    <row r="19" spans="3:7" x14ac:dyDescent="0.2">
       <c r="C19" t="s">
         <v>21</v>
       </c>
@@ -2729,7 +2730,7 @@
         <v>2</v>
       </c>
     </row>
-    <row r="20" spans="3:7" x14ac:dyDescent="0.15">
+    <row r="20" spans="3:7" x14ac:dyDescent="0.2">
       <c r="C20" t="s">
         <v>19</v>
       </c>
@@ -2743,7 +2744,7 @@
         <v>2</v>
       </c>
     </row>
-    <row r="21" spans="3:7" x14ac:dyDescent="0.15">
+    <row r="21" spans="3:7" x14ac:dyDescent="0.2">
       <c r="C21" t="s">
         <v>29</v>
       </c>
@@ -2757,7 +2758,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="22" spans="3:7" x14ac:dyDescent="0.15">
+    <row r="22" spans="3:7" x14ac:dyDescent="0.2">
       <c r="C22" t="s">
         <v>16</v>
       </c>
@@ -2771,7 +2772,7 @@
         <v>2</v>
       </c>
     </row>
-    <row r="23" spans="3:7" x14ac:dyDescent="0.15">
+    <row r="23" spans="3:7" x14ac:dyDescent="0.2">
       <c r="C23" t="s">
         <v>15</v>
       </c>
@@ -2785,7 +2786,7 @@
         <v>2</v>
       </c>
     </row>
-    <row r="24" spans="3:7" x14ac:dyDescent="0.15">
+    <row r="24" spans="3:7" x14ac:dyDescent="0.2">
       <c r="C24" t="s">
         <v>12</v>
       </c>
@@ -2799,7 +2800,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="25" spans="3:7" x14ac:dyDescent="0.15">
+    <row r="25" spans="3:7" x14ac:dyDescent="0.2">
       <c r="C25" t="s">
         <v>14</v>
       </c>
@@ -2813,7 +2814,7 @@
         <v>2</v>
       </c>
     </row>
-    <row r="26" spans="3:7" x14ac:dyDescent="0.15">
+    <row r="26" spans="3:7" x14ac:dyDescent="0.2">
       <c r="C26" t="s">
         <v>25</v>
       </c>
@@ -2827,7 +2828,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="27" spans="3:7" x14ac:dyDescent="0.15">
+    <row r="27" spans="3:7" x14ac:dyDescent="0.2">
       <c r="C27" t="s">
         <v>27</v>
       </c>
@@ -2841,7 +2842,7 @@
         <v>2</v>
       </c>
     </row>
-    <row r="28" spans="3:7" x14ac:dyDescent="0.15">
+    <row r="28" spans="3:7" x14ac:dyDescent="0.2">
       <c r="C28" t="s">
         <v>24</v>
       </c>
@@ -2855,7 +2856,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="29" spans="3:7" x14ac:dyDescent="0.15">
+    <row r="29" spans="3:7" x14ac:dyDescent="0.2">
       <c r="C29" t="s">
         <v>28</v>
       </c>
@@ -2883,13 +2884,13 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{F1AC6138-9A89-44DA-BE82-CB1DBD38A42D}">
   <dimension ref="A1:L29"/>
   <sheetViews>
-    <sheetView tabSelected="1" zoomScale="182" zoomScaleNormal="130" workbookViewId="0">
-      <selection activeCell="L27" sqref="L27"/>
+    <sheetView zoomScale="182" zoomScaleNormal="130" workbookViewId="0">
+      <selection sqref="A1:XFD1"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr baseColWidth="10" defaultColWidth="8.83203125" defaultRowHeight="13" x14ac:dyDescent="0.15"/>
+  <sheetFormatPr defaultColWidth="8.85546875" defaultRowHeight="12.75" x14ac:dyDescent="0.2"/>
   <sheetData>
-    <row r="1" spans="1:12" x14ac:dyDescent="0.15">
+    <row r="1" spans="1:12" x14ac:dyDescent="0.2">
       <c r="A1" t="s">
         <v>0</v>
       </c>
@@ -2927,7 +2928,7 @@
         <v>11</v>
       </c>
     </row>
-    <row r="2" spans="1:12" x14ac:dyDescent="0.15">
+    <row r="2" spans="1:12" x14ac:dyDescent="0.2">
       <c r="C2" t="s">
         <v>14</v>
       </c>
@@ -2941,7 +2942,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="3" spans="1:12" x14ac:dyDescent="0.15">
+    <row r="3" spans="1:12" x14ac:dyDescent="0.2">
       <c r="C3" t="s">
         <v>17</v>
       </c>
@@ -2955,7 +2956,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="4" spans="1:12" x14ac:dyDescent="0.15">
+    <row r="4" spans="1:12" x14ac:dyDescent="0.2">
       <c r="C4" t="s">
         <v>24</v>
       </c>
@@ -2969,7 +2970,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="5" spans="1:12" x14ac:dyDescent="0.15">
+    <row r="5" spans="1:12" x14ac:dyDescent="0.2">
       <c r="C5" t="s">
         <v>27</v>
       </c>
@@ -2983,7 +2984,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="6" spans="1:12" x14ac:dyDescent="0.15">
+    <row r="6" spans="1:12" x14ac:dyDescent="0.2">
       <c r="C6" t="s">
         <v>25</v>
       </c>
@@ -2997,7 +2998,7 @@
         <v>2</v>
       </c>
     </row>
-    <row r="7" spans="1:12" x14ac:dyDescent="0.15">
+    <row r="7" spans="1:12" x14ac:dyDescent="0.2">
       <c r="C7" t="s">
         <v>13</v>
       </c>
@@ -3011,7 +3012,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="8" spans="1:12" x14ac:dyDescent="0.15">
+    <row r="8" spans="1:12" x14ac:dyDescent="0.2">
       <c r="C8" t="s">
         <v>29</v>
       </c>
@@ -3025,7 +3026,7 @@
         <v>2</v>
       </c>
     </row>
-    <row r="9" spans="1:12" x14ac:dyDescent="0.15">
+    <row r="9" spans="1:12" x14ac:dyDescent="0.2">
       <c r="C9" t="s">
         <v>12</v>
       </c>
@@ -3039,7 +3040,7 @@
         <v>2</v>
       </c>
     </row>
-    <row r="10" spans="1:12" x14ac:dyDescent="0.15">
+    <row r="10" spans="1:12" x14ac:dyDescent="0.2">
       <c r="C10" t="s">
         <v>18</v>
       </c>
@@ -3053,7 +3054,7 @@
         <v>2</v>
       </c>
     </row>
-    <row r="11" spans="1:12" x14ac:dyDescent="0.15">
+    <row r="11" spans="1:12" x14ac:dyDescent="0.2">
       <c r="C11" t="s">
         <v>22</v>
       </c>
@@ -3067,7 +3068,7 @@
         <v>2</v>
       </c>
     </row>
-    <row r="12" spans="1:12" x14ac:dyDescent="0.15">
+    <row r="12" spans="1:12" x14ac:dyDescent="0.2">
       <c r="C12" t="s">
         <v>23</v>
       </c>
@@ -3081,7 +3082,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="13" spans="1:12" x14ac:dyDescent="0.15">
+    <row r="13" spans="1:12" x14ac:dyDescent="0.2">
       <c r="C13" t="s">
         <v>20</v>
       </c>
@@ -3098,7 +3099,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="14" spans="1:12" x14ac:dyDescent="0.15">
+    <row r="14" spans="1:12" x14ac:dyDescent="0.2">
       <c r="C14" t="s">
         <v>15</v>
       </c>
@@ -3112,7 +3113,7 @@
         <v>2</v>
       </c>
     </row>
-    <row r="15" spans="1:12" x14ac:dyDescent="0.15">
+    <row r="15" spans="1:12" x14ac:dyDescent="0.2">
       <c r="C15" t="s">
         <v>21</v>
       </c>
@@ -3126,7 +3127,7 @@
         <v>2</v>
       </c>
     </row>
-    <row r="16" spans="1:12" x14ac:dyDescent="0.15">
+    <row r="16" spans="1:12" x14ac:dyDescent="0.2">
       <c r="C16" t="s">
         <v>14</v>
       </c>
@@ -3140,7 +3141,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="17" spans="3:12" x14ac:dyDescent="0.15">
+    <row r="17" spans="3:12" x14ac:dyDescent="0.2">
       <c r="C17" t="s">
         <v>17</v>
       </c>
@@ -3154,7 +3155,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="18" spans="3:12" x14ac:dyDescent="0.15">
+    <row r="18" spans="3:12" x14ac:dyDescent="0.2">
       <c r="C18" t="s">
         <v>24</v>
       </c>
@@ -3168,7 +3169,7 @@
         <v>2</v>
       </c>
     </row>
-    <row r="19" spans="3:12" x14ac:dyDescent="0.15">
+    <row r="19" spans="3:12" x14ac:dyDescent="0.2">
       <c r="C19" t="s">
         <v>27</v>
       </c>
@@ -3182,7 +3183,7 @@
         <v>2</v>
       </c>
     </row>
-    <row r="20" spans="3:12" x14ac:dyDescent="0.15">
+    <row r="20" spans="3:12" x14ac:dyDescent="0.2">
       <c r="C20" t="s">
         <v>25</v>
       </c>
@@ -3196,7 +3197,7 @@
         <v>2</v>
       </c>
     </row>
-    <row r="21" spans="3:12" x14ac:dyDescent="0.15">
+    <row r="21" spans="3:12" x14ac:dyDescent="0.2">
       <c r="C21" t="s">
         <v>13</v>
       </c>
@@ -3210,7 +3211,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="22" spans="3:12" x14ac:dyDescent="0.15">
+    <row r="22" spans="3:12" x14ac:dyDescent="0.2">
       <c r="C22" t="s">
         <v>29</v>
       </c>
@@ -3224,7 +3225,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="23" spans="3:12" x14ac:dyDescent="0.15">
+    <row r="23" spans="3:12" x14ac:dyDescent="0.2">
       <c r="C23" t="s">
         <v>22</v>
       </c>
@@ -3238,7 +3239,7 @@
         <v>2</v>
       </c>
     </row>
-    <row r="24" spans="3:12" x14ac:dyDescent="0.15">
+    <row r="24" spans="3:12" x14ac:dyDescent="0.2">
       <c r="C24" t="s">
         <v>23</v>
       </c>
@@ -3252,7 +3253,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="25" spans="3:12" x14ac:dyDescent="0.15">
+    <row r="25" spans="3:12" x14ac:dyDescent="0.2">
       <c r="C25" t="s">
         <v>20</v>
       </c>
@@ -3266,7 +3267,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="26" spans="3:12" x14ac:dyDescent="0.15">
+    <row r="26" spans="3:12" x14ac:dyDescent="0.2">
       <c r="C26" t="s">
         <v>15</v>
       </c>
@@ -3283,7 +3284,7 @@
         <v>109</v>
       </c>
     </row>
-    <row r="27" spans="3:12" x14ac:dyDescent="0.15">
+    <row r="27" spans="3:12" x14ac:dyDescent="0.2">
       <c r="C27" t="s">
         <v>21</v>
       </c>
@@ -3297,7 +3298,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="28" spans="3:12" x14ac:dyDescent="0.15">
+    <row r="28" spans="3:12" x14ac:dyDescent="0.2">
       <c r="C28" t="s">
         <v>12</v>
       </c>
@@ -3311,7 +3312,7 @@
         <v>2</v>
       </c>
     </row>
-    <row r="29" spans="3:12" x14ac:dyDescent="0.15">
+    <row r="29" spans="3:12" x14ac:dyDescent="0.2">
       <c r="C29" t="s">
         <v>18</v>
       </c>
@@ -3329,4 +3330,315 @@
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
   <pageSetup paperSize="9" orientation="portrait" r:id="rId1"/>
 </worksheet>
+</file>
+
+<file path=xl/worksheets/sheet3.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{22778B1B-6382-4C58-8240-350A6633F5C0}">
+  <dimension ref="A1:L19"/>
+  <sheetViews>
+    <sheetView tabSelected="1" topLeftCell="A4" workbookViewId="0">
+      <selection activeCell="I24" sqref="I24"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr defaultRowHeight="12.75" x14ac:dyDescent="0.2"/>
+  <sheetData>
+    <row r="1" spans="1:12" x14ac:dyDescent="0.2">
+      <c r="A1" t="s">
+        <v>0</v>
+      </c>
+      <c r="B1" t="s">
+        <v>1</v>
+      </c>
+      <c r="C1" t="s">
+        <v>2</v>
+      </c>
+      <c r="D1" t="s">
+        <v>3</v>
+      </c>
+      <c r="E1" t="s">
+        <v>4</v>
+      </c>
+      <c r="F1" t="s">
+        <v>5</v>
+      </c>
+      <c r="G1" t="s">
+        <v>6</v>
+      </c>
+      <c r="H1" t="s">
+        <v>7</v>
+      </c>
+      <c r="I1" t="s">
+        <v>8</v>
+      </c>
+      <c r="J1" t="s">
+        <v>9</v>
+      </c>
+      <c r="K1" t="s">
+        <v>10</v>
+      </c>
+      <c r="L1" t="s">
+        <v>11</v>
+      </c>
+    </row>
+    <row r="2" spans="1:12" x14ac:dyDescent="0.2">
+      <c r="C2" t="s">
+        <v>16</v>
+      </c>
+      <c r="D2" t="s">
+        <v>12</v>
+      </c>
+      <c r="E2">
+        <v>2</v>
+      </c>
+      <c r="F2">
+        <v>0</v>
+      </c>
+      <c r="G2">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="3" spans="1:12" x14ac:dyDescent="0.2">
+      <c r="C3" t="s">
+        <v>24</v>
+      </c>
+      <c r="D3" t="s">
+        <v>27</v>
+      </c>
+      <c r="E3">
+        <v>2</v>
+      </c>
+      <c r="F3">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="4" spans="1:12" x14ac:dyDescent="0.2">
+      <c r="C4" t="s">
+        <v>23</v>
+      </c>
+      <c r="D4" t="s">
+        <v>13</v>
+      </c>
+      <c r="E4">
+        <v>2</v>
+      </c>
+      <c r="F4">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="5" spans="1:12" x14ac:dyDescent="0.2">
+      <c r="C5" t="s">
+        <v>28</v>
+      </c>
+      <c r="D5" t="s">
+        <v>14</v>
+      </c>
+      <c r="E5">
+        <v>0</v>
+      </c>
+      <c r="F5">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="6" spans="1:12" x14ac:dyDescent="0.2">
+      <c r="C6" t="s">
+        <v>22</v>
+      </c>
+      <c r="D6" t="s">
+        <v>16</v>
+      </c>
+      <c r="E6">
+        <v>2</v>
+      </c>
+      <c r="F6">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="7" spans="1:12" x14ac:dyDescent="0.2">
+      <c r="C7" t="s">
+        <v>12</v>
+      </c>
+      <c r="D7" t="s">
+        <v>24</v>
+      </c>
+      <c r="E7">
+        <v>0</v>
+      </c>
+      <c r="F7">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="8" spans="1:12" x14ac:dyDescent="0.2">
+      <c r="C8" t="s">
+        <v>27</v>
+      </c>
+      <c r="D8" t="s">
+        <v>13</v>
+      </c>
+      <c r="E8">
+        <v>0</v>
+      </c>
+      <c r="F8">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="9" spans="1:12" x14ac:dyDescent="0.2">
+      <c r="C9" t="s">
+        <v>28</v>
+      </c>
+      <c r="D9" t="s">
+        <v>16</v>
+      </c>
+      <c r="E9">
+        <v>1</v>
+      </c>
+      <c r="F9">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="10" spans="1:12" x14ac:dyDescent="0.2">
+      <c r="C10" t="s">
+        <v>12</v>
+      </c>
+      <c r="D10" t="s">
+        <v>22</v>
+      </c>
+      <c r="E10">
+        <v>1</v>
+      </c>
+      <c r="F10">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="11" spans="1:12" x14ac:dyDescent="0.2">
+      <c r="C11" t="s">
+        <v>13</v>
+      </c>
+      <c r="D11" t="s">
+        <v>14</v>
+      </c>
+      <c r="E11">
+        <v>1</v>
+      </c>
+      <c r="F11">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="12" spans="1:12" x14ac:dyDescent="0.2">
+      <c r="C12" t="s">
+        <v>16</v>
+      </c>
+      <c r="D12" t="s">
+        <v>23</v>
+      </c>
+      <c r="E12">
+        <v>1</v>
+      </c>
+      <c r="F12">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="13" spans="1:12" x14ac:dyDescent="0.2">
+      <c r="C13" t="s">
+        <v>24</v>
+      </c>
+      <c r="D13" t="s">
+        <v>28</v>
+      </c>
+      <c r="E13">
+        <v>2</v>
+      </c>
+      <c r="F13">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="14" spans="1:12" x14ac:dyDescent="0.2">
+      <c r="C14" t="s">
+        <v>13</v>
+      </c>
+      <c r="D14" t="s">
+        <v>22</v>
+      </c>
+      <c r="E14">
+        <v>2</v>
+      </c>
+      <c r="F14">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="15" spans="1:12" x14ac:dyDescent="0.2">
+      <c r="C15" t="s">
+        <v>14</v>
+      </c>
+      <c r="D15" t="s">
+        <v>27</v>
+      </c>
+      <c r="E15">
+        <v>2</v>
+      </c>
+      <c r="F15">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="16" spans="1:12" x14ac:dyDescent="0.2">
+      <c r="C16" t="s">
+        <v>23</v>
+      </c>
+      <c r="D16" t="s">
+        <v>12</v>
+      </c>
+      <c r="E16">
+        <v>2</v>
+      </c>
+      <c r="F16">
+        <v>0</v>
+      </c>
+      <c r="K16">
+        <v>108</v>
+      </c>
+    </row>
+    <row r="17" spans="3:6" x14ac:dyDescent="0.2">
+      <c r="C17" t="s">
+        <v>27</v>
+      </c>
+      <c r="D17" t="s">
+        <v>28</v>
+      </c>
+      <c r="E17">
+        <v>0</v>
+      </c>
+      <c r="F17">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="18" spans="3:6" x14ac:dyDescent="0.2">
+      <c r="C18" t="s">
+        <v>14</v>
+      </c>
+      <c r="D18" t="s">
+        <v>24</v>
+      </c>
+      <c r="E18">
+        <v>2</v>
+      </c>
+      <c r="F18">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="19" spans="3:6" x14ac:dyDescent="0.2">
+      <c r="C19" t="s">
+        <v>22</v>
+      </c>
+      <c r="D19" t="s">
+        <v>23</v>
+      </c>
+      <c r="E19">
+        <v>1</v>
+      </c>
+      <c r="F19">
+        <v>2</v>
+      </c>
+    </row>
+  </sheetData>
+  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+</worksheet>
 </file>
--- a/data/Austerlitz_seizoen_2020-2021.xlsx
+++ b/data/Austerlitz_seizoen_2020-2021.xlsx
@@ -5,20 +5,21 @@
   <workbookPr defaultThemeVersion="166925"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="U:\src\darts\data\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="W:\src\darts\data\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{0C8B4484-B2D3-4726-9D08-40B95ABD949F}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="45" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{A300AB28-2841-47AA-A6CE-B50263DF4ED5}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="45" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="-120" yWindow="-120" windowWidth="57840" windowHeight="32040" tabRatio="766" activeTab="2" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="2730" yWindow="600" windowWidth="28680" windowHeight="31800" tabRatio="766" activeTab="3" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="2020-09-04" sheetId="30" r:id="rId1"/>
     <sheet name="2020-09-11" sheetId="31" r:id="rId2"/>
     <sheet name="2020-09-18" sheetId="32" r:id="rId3"/>
+    <sheet name="2020-09-25" sheetId="33" r:id="rId4"/>
   </sheets>
   <externalReferences>
-    <externalReference r:id="rId4"/>
+    <externalReference r:id="rId5"/>
   </externalReferences>
   <definedNames>
     <definedName name="Wedstrijden">[1]Rondeberekening!$A$2:$G$83</definedName>
@@ -36,7 +37,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="184" uniqueCount="30">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="244" uniqueCount="30">
   <si>
     <t>Baan</t>
   </si>
@@ -3336,8 +3337,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{22778B1B-6382-4C58-8240-350A6633F5C0}">
   <dimension ref="A1:L19"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A4" workbookViewId="0">
-      <selection activeCell="I24" sqref="I24"/>
+    <sheetView workbookViewId="0">
+      <selection sqref="A1:XFD1"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="12.75" x14ac:dyDescent="0.2"/>
@@ -3641,4 +3642,406 @@
   </sheetData>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
 </worksheet>
+</file>
+
+<file path=xl/worksheets/sheet4.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{EAED7E97-31FA-482A-920B-96FC981BE8AD}">
+  <dimension ref="A1:L25"/>
+  <sheetViews>
+    <sheetView tabSelected="1" workbookViewId="0">
+      <selection activeCell="F25" sqref="F25"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr defaultRowHeight="12.75" x14ac:dyDescent="0.2"/>
+  <sheetData>
+    <row r="1" spans="1:12" x14ac:dyDescent="0.2">
+      <c r="A1" t="s">
+        <v>0</v>
+      </c>
+      <c r="B1" t="s">
+        <v>1</v>
+      </c>
+      <c r="C1" t="s">
+        <v>2</v>
+      </c>
+      <c r="D1" t="s">
+        <v>3</v>
+      </c>
+      <c r="E1" t="s">
+        <v>4</v>
+      </c>
+      <c r="F1" t="s">
+        <v>5</v>
+      </c>
+      <c r="G1" t="s">
+        <v>6</v>
+      </c>
+      <c r="H1" t="s">
+        <v>7</v>
+      </c>
+      <c r="I1" t="s">
+        <v>8</v>
+      </c>
+      <c r="J1" t="s">
+        <v>9</v>
+      </c>
+      <c r="K1" t="s">
+        <v>10</v>
+      </c>
+      <c r="L1" t="s">
+        <v>11</v>
+      </c>
+    </row>
+    <row r="2" spans="1:12" x14ac:dyDescent="0.2">
+      <c r="C2" t="s">
+        <v>29</v>
+      </c>
+      <c r="D2" t="s">
+        <v>13</v>
+      </c>
+      <c r="E2">
+        <v>0</v>
+      </c>
+      <c r="F2">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="3" spans="1:12" x14ac:dyDescent="0.2">
+      <c r="C3" t="s">
+        <v>21</v>
+      </c>
+      <c r="D3" t="s">
+        <v>24</v>
+      </c>
+      <c r="E3">
+        <v>0</v>
+      </c>
+      <c r="F3">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="4" spans="1:12" x14ac:dyDescent="0.2">
+      <c r="C4" t="s">
+        <v>12</v>
+      </c>
+      <c r="D4" t="s">
+        <v>25</v>
+      </c>
+      <c r="E4">
+        <v>0</v>
+      </c>
+      <c r="F4">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="5" spans="1:12" x14ac:dyDescent="0.2">
+      <c r="C5" t="s">
+        <v>23</v>
+      </c>
+      <c r="D5" t="s">
+        <v>14</v>
+      </c>
+      <c r="E5">
+        <v>2</v>
+      </c>
+      <c r="F5">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="6" spans="1:12" x14ac:dyDescent="0.2">
+      <c r="C6" t="s">
+        <v>27</v>
+      </c>
+      <c r="D6" t="s">
+        <v>22</v>
+      </c>
+      <c r="E6">
+        <v>2</v>
+      </c>
+      <c r="F6">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="7" spans="1:12" x14ac:dyDescent="0.2">
+      <c r="C7" t="s">
+        <v>24</v>
+      </c>
+      <c r="D7" t="s">
+        <v>15</v>
+      </c>
+      <c r="E7">
+        <v>2</v>
+      </c>
+      <c r="F7">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="8" spans="1:12" x14ac:dyDescent="0.2">
+      <c r="C8" t="s">
+        <v>13</v>
+      </c>
+      <c r="D8" t="s">
+        <v>12</v>
+      </c>
+      <c r="E8">
+        <v>2</v>
+      </c>
+      <c r="F8">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="9" spans="1:12" x14ac:dyDescent="0.2">
+      <c r="C9" t="s">
+        <v>28</v>
+      </c>
+      <c r="D9" t="s">
+        <v>23</v>
+      </c>
+      <c r="E9">
+        <v>1</v>
+      </c>
+      <c r="F9">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="10" spans="1:12" x14ac:dyDescent="0.2">
+      <c r="C10" t="s">
+        <v>28</v>
+      </c>
+      <c r="D10" t="s">
+        <v>29</v>
+      </c>
+      <c r="E10">
+        <v>0</v>
+      </c>
+      <c r="F10">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="11" spans="1:12" x14ac:dyDescent="0.2">
+      <c r="C11" t="s">
+        <v>13</v>
+      </c>
+      <c r="D11" t="s">
+        <v>24</v>
+      </c>
+      <c r="E11">
+        <v>0</v>
+      </c>
+      <c r="F11">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="12" spans="1:12" x14ac:dyDescent="0.2">
+      <c r="C12" t="s">
+        <v>15</v>
+      </c>
+      <c r="D12" t="s">
+        <v>12</v>
+      </c>
+      <c r="E12">
+        <v>2</v>
+      </c>
+      <c r="F12">
+        <v>1</v>
+      </c>
+      <c r="I12">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="13" spans="1:12" x14ac:dyDescent="0.2">
+      <c r="C13" t="s">
+        <v>25</v>
+      </c>
+      <c r="D13" t="s">
+        <v>22</v>
+      </c>
+      <c r="E13">
+        <v>2</v>
+      </c>
+      <c r="F13">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="14" spans="1:12" x14ac:dyDescent="0.2">
+      <c r="C14" t="s">
+        <v>21</v>
+      </c>
+      <c r="D14" t="s">
+        <v>23</v>
+      </c>
+      <c r="E14">
+        <v>1</v>
+      </c>
+      <c r="F14">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="15" spans="1:12" x14ac:dyDescent="0.2">
+      <c r="C15" t="s">
+        <v>14</v>
+      </c>
+      <c r="D15" t="s">
+        <v>13</v>
+      </c>
+      <c r="E15">
+        <v>2</v>
+      </c>
+      <c r="F15">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="16" spans="1:12" x14ac:dyDescent="0.2">
+      <c r="C16" t="s">
+        <v>29</v>
+      </c>
+      <c r="D16" t="s">
+        <v>27</v>
+      </c>
+      <c r="E16">
+        <v>2</v>
+      </c>
+      <c r="F16">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="17" spans="3:9" x14ac:dyDescent="0.2">
+      <c r="C17" t="s">
+        <v>24</v>
+      </c>
+      <c r="D17" t="s">
+        <v>25</v>
+      </c>
+      <c r="E17">
+        <v>2</v>
+      </c>
+      <c r="F17">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="18" spans="3:9" x14ac:dyDescent="0.2">
+      <c r="C18" t="s">
+        <v>22</v>
+      </c>
+      <c r="D18" t="s">
+        <v>21</v>
+      </c>
+      <c r="E18">
+        <v>2</v>
+      </c>
+      <c r="F18">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="19" spans="3:9" x14ac:dyDescent="0.2">
+      <c r="C19" t="s">
+        <v>14</v>
+      </c>
+      <c r="D19" t="s">
+        <v>15</v>
+      </c>
+      <c r="E19">
+        <v>2</v>
+      </c>
+      <c r="F19">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="20" spans="3:9" x14ac:dyDescent="0.2">
+      <c r="C20" t="s">
+        <v>12</v>
+      </c>
+      <c r="D20" t="s">
+        <v>27</v>
+      </c>
+      <c r="E20">
+        <v>2</v>
+      </c>
+      <c r="F20">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="21" spans="3:9" x14ac:dyDescent="0.2">
+      <c r="C21" t="s">
+        <v>27</v>
+      </c>
+      <c r="D21" t="s">
+        <v>21</v>
+      </c>
+      <c r="E21">
+        <v>2</v>
+      </c>
+      <c r="F21">
+        <v>0</v>
+      </c>
+      <c r="G21">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="22" spans="3:9" x14ac:dyDescent="0.2">
+      <c r="C22" t="s">
+        <v>25</v>
+      </c>
+      <c r="D22" t="s">
+        <v>14</v>
+      </c>
+      <c r="E22">
+        <v>2</v>
+      </c>
+      <c r="F22">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="23" spans="3:9" x14ac:dyDescent="0.2">
+      <c r="C23" t="s">
+        <v>22</v>
+      </c>
+      <c r="D23" t="s">
+        <v>28</v>
+      </c>
+      <c r="E23">
+        <v>1</v>
+      </c>
+      <c r="F23">
+        <v>2</v>
+      </c>
+      <c r="G23">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="24" spans="3:9" x14ac:dyDescent="0.2">
+      <c r="C24" t="s">
+        <v>15</v>
+      </c>
+      <c r="D24" t="s">
+        <v>28</v>
+      </c>
+      <c r="E24">
+        <v>2</v>
+      </c>
+      <c r="F24">
+        <v>1</v>
+      </c>
+      <c r="I24">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="25" spans="3:9" x14ac:dyDescent="0.2">
+      <c r="C25" t="s">
+        <v>23</v>
+      </c>
+      <c r="D25" t="s">
+        <v>29</v>
+      </c>
+      <c r="E25">
+        <v>0</v>
+      </c>
+      <c r="F25">
+        <v>2</v>
+      </c>
+    </row>
+  </sheetData>
+  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+  <pageSetup paperSize="9" orientation="portrait" copies="0" r:id="rId1"/>
+</worksheet>
 </file>